--- a/outputs-r202/test-g__Ruminococcus_D.xlsx
+++ b/outputs-r202/test-g__Ruminococcus_D.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
   <si>
     <t>Row</t>
   </si>
@@ -163,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -173,14 +173,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -235,595 +239,595 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="C2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="D2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="E2">
-        <v>7.2276172775122313e-06</v>
+        <v>1.5585832451163206e-06</v>
       </c>
       <c r="F2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="G2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="H2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="I2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="J2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="K2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="L2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="M2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="N2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="O2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="P2">
-        <v>0.99999277238194528</v>
+        <v>0.9999984414159776</v>
       </c>
       <c r="Q2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="R2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="S2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="T2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="U2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="V2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="W2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="X2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="Y2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="Z2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="AA2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="AB2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="AC2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="AD2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="AE2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="AF2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="AG2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="AH2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="AI2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="AJ2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="AK2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="AL2">
-        <v>2.220445615515377e-14</v>
+        <v>2.2204459557168697e-14</v>
       </c>
       <c r="AM2">
         <v>15</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="C3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="D3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="E3">
-        <v>6.5821904905707989e-05</v>
+        <v>0.00057342156843884803</v>
       </c>
       <c r="F3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="G3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="H3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="I3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="J3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="K3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="L3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="M3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="N3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="O3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="P3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="Q3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="R3">
-        <v>0.99993417809431706</v>
+        <v>0.99942657843078408</v>
       </c>
       <c r="S3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="T3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="U3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="V3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="W3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="X3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="Y3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="Z3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="AA3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="AB3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="AC3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="AD3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="AE3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="AF3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="AG3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="AH3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="AI3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="AJ3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="AK3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="AL3">
-        <v>2.2204420999157905e-14</v>
+        <v>2.2204116957302698e-14</v>
       </c>
       <c r="AM3">
         <v>17</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="C4">
-        <v>2.6870723150170631e-09</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="D4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="E4">
-        <v>0.0020659420567135313</v>
+        <v>0.0017116519379476633</v>
       </c>
       <c r="F4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="G4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="H4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="I4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="J4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="K4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="L4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="M4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="N4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="O4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="P4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="Q4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="R4">
-        <v>0.9979340552554592</v>
+        <v>0.9982883480612752</v>
       </c>
       <c r="S4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="T4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="U4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="V4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="W4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="X4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="Y4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="Z4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="AA4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="AB4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="AC4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="AD4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="AE4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="AF4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="AG4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="AH4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="AI4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="AJ4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="AK4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="AL4">
-        <v>2.2203228291612053e-14</v>
+        <v>2.2203438522593338e-14</v>
       </c>
       <c r="AM4">
         <v>17</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="C5">
-        <v>0.00017185017229244689</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="D5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="E5">
-        <v>0.0045281414938209306</v>
+        <v>0.00019922076025211168</v>
       </c>
       <c r="F5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="G5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="H5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="I5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="J5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="K5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="L5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="M5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="N5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="O5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="P5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="Q5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="R5">
-        <v>0.99530000833313181</v>
+        <v>0.99980077923897082</v>
       </c>
       <c r="S5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="T5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="U5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="V5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="W5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="X5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="Y5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="Z5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="AA5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="AB5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="AC5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="AD5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="AE5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="AF5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="AG5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="AH5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="AI5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="AJ5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="AK5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="AL5">
-        <v>2.2201950093214921e-14</v>
+        <v>2.2204341006873194e-14</v>
       </c>
       <c r="AM5">
         <v>17</v>
